--- a/core-sodium/doc/isa.xlsx
+++ b/core-sodium/doc/isa.xlsx
@@ -2110,7 +2110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2249,9 +2249,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2261,9 +2258,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2417,6 +2411,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2430,12 +2427,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2776,8 +2767,8 @@
   </sheetPr>
   <dimension ref="A1:AM139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AJ61" sqref="AJ61"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="AJ86" sqref="AJ86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22641509433962" defaultRowHeight="19.7"/>
@@ -2794,17 +2785,17 @@
       <c r="AG1" s="20"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:33">
-      <c r="B2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="AD2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="B2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="AD2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:33">
       <c r="B3" s="20" t="s">
@@ -2830,179 +2821,179 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="2:36">
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>3</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="55">
         <v>3</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="55">
         <v>2</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <v>2</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="55">
         <v>2</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="55">
         <v>2</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="55">
         <v>2</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="55">
         <v>2</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="78">
         <v>2</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="78">
         <v>2</v>
       </c>
-      <c r="L4" s="80">
+      <c r="L4" s="78">
         <v>2</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="78">
         <v>2</v>
       </c>
-      <c r="N4" s="80">
-        <v>1</v>
-      </c>
-      <c r="O4" s="80">
-        <v>1</v>
-      </c>
-      <c r="P4" s="80">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="80">
-        <v>1</v>
-      </c>
-      <c r="R4" s="57">
-        <v>1</v>
-      </c>
-      <c r="S4" s="57">
-        <v>1</v>
-      </c>
-      <c r="T4" s="57">
-        <v>1</v>
-      </c>
-      <c r="U4" s="57">
-        <v>1</v>
-      </c>
-      <c r="V4" s="57">
-        <v>1</v>
-      </c>
-      <c r="W4" s="57">
-        <v>1</v>
-      </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
+      <c r="N4" s="78">
+        <v>1</v>
+      </c>
+      <c r="O4" s="78">
+        <v>1</v>
+      </c>
+      <c r="P4" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="78">
+        <v>1</v>
+      </c>
+      <c r="R4" s="55">
+        <v>1</v>
+      </c>
+      <c r="S4" s="55">
+        <v>1</v>
+      </c>
+      <c r="T4" s="55">
+        <v>1</v>
+      </c>
+      <c r="U4" s="55">
+        <v>1</v>
+      </c>
+      <c r="V4" s="55">
+        <v>1</v>
+      </c>
+      <c r="W4" s="55">
+        <v>1</v>
+      </c>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
       <c r="AJ4" s="22"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="2:35">
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57">
-        <v>0</v>
-      </c>
-      <c r="D5" s="57">
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55">
         <v>9</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="55">
         <v>8</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="78">
         <v>7</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="78">
         <v>6</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="78">
         <v>5</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="78">
         <v>4</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="55">
         <v>3</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="55">
         <v>2</v>
       </c>
-      <c r="L5" s="57">
-        <v>1</v>
-      </c>
-      <c r="M5" s="57">
-        <v>0</v>
-      </c>
-      <c r="N5" s="80">
+      <c r="L5" s="55">
+        <v>1</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0</v>
+      </c>
+      <c r="N5" s="78">
         <v>9</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="78">
         <v>8</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="78">
         <v>7</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="78">
         <v>6</v>
       </c>
-      <c r="R5" s="57">
+      <c r="R5" s="55">
         <v>5</v>
       </c>
-      <c r="S5" s="57">
+      <c r="S5" s="55">
         <v>4</v>
       </c>
-      <c r="T5" s="57">
+      <c r="T5" s="55">
         <v>3</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="55">
         <v>2</v>
       </c>
-      <c r="V5" s="80">
-        <v>1</v>
-      </c>
-      <c r="W5" s="80">
-        <v>0</v>
-      </c>
-      <c r="X5" s="80">
+      <c r="V5" s="78">
+        <v>1</v>
+      </c>
+      <c r="W5" s="78">
+        <v>0</v>
+      </c>
+      <c r="X5" s="78">
         <v>9</v>
       </c>
-      <c r="Y5" s="80">
+      <c r="Y5" s="78">
         <v>8</v>
       </c>
-      <c r="Z5" s="57">
+      <c r="Z5" s="55">
         <v>7</v>
       </c>
-      <c r="AA5" s="57">
+      <c r="AA5" s="55">
         <v>6</v>
       </c>
-      <c r="AB5" s="57">
+      <c r="AB5" s="55">
         <v>5</v>
       </c>
-      <c r="AC5" s="57">
+      <c r="AC5" s="55">
         <v>4</v>
       </c>
-      <c r="AD5" s="80">
+      <c r="AD5" s="78">
         <v>3</v>
       </c>
-      <c r="AE5" s="80">
+      <c r="AE5" s="78">
         <v>2</v>
       </c>
-      <c r="AF5" s="80">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="80">
+      <c r="AF5" s="78">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="78">
         <v>0</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -3013,7 +3004,7 @@
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -3074,7 +3065,7 @@
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -3089,13 +3080,13 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="31" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3126,7 @@
       </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="34" t="s">
@@ -3143,15 +3134,15 @@
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="51"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3195,7 +3186,7 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -3255,7 +3246,7 @@
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3265,15 +3256,15 @@
       <c r="D10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="51"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="32" t="s">
         <v>20</v>
       </c>
@@ -3317,7 +3308,7 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -3327,15 +3318,15 @@
       <c r="D11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="51"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="45" t="s">
         <v>40</v>
       </c>
@@ -3362,13 +3353,13 @@
       <c r="AA11" s="32"/>
       <c r="AB11" s="32"/>
       <c r="AC11" s="32"/>
-      <c r="AD11" s="90">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="90">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="90">
+      <c r="AD11" s="88">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="88">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="88">
         <v>0</v>
       </c>
       <c r="AG11" s="38">
@@ -3379,7 +3370,7 @@
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -3435,7 +3426,7 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="56" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -3474,16 +3465,16 @@
       <c r="AA13" s="32"/>
       <c r="AB13" s="32"/>
       <c r="AC13" s="32"/>
-      <c r="AD13" s="91">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="91">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="91">
+      <c r="AD13" s="89">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="89">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="89">
         <v>1</v>
       </c>
       <c r="AI13" s="4" t="s">
@@ -3497,29 +3488,29 @@
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="51"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
@@ -3534,37 +3525,37 @@
       <c r="AG14" s="36">
         <v>0</v>
       </c>
-      <c r="AI14" s="92" t="s">
+      <c r="AI14" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="AJ14" s="93" t="s">
+      <c r="AJ14" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="51"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="49"/>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
@@ -3952,7 +3943,7 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="4">
@@ -3966,33 +3957,33 @@
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="85" t="s">
+      <c r="I36" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="86" t="s">
+      <c r="K36" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="86" t="s">
+      <c r="L36" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="86" t="s">
+      <c r="N36" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="86" t="s">
+      <c r="O36" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="P36" s="86" t="s">
+      <c r="P36" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="86" t="s">
+      <c r="Q36" s="84" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="64"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
@@ -4019,13 +4010,13 @@
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
       <c r="G38" s="4">
         <v>0</v>
       </c>
@@ -4042,10 +4033,10 @@
       <c r="AI38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AL38" s="94"/>
+      <c r="AL38" s="92"/>
     </row>
     <row r="39" spans="1:35">
-      <c r="A39" s="64"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="1" t="s">
         <v>101</v>
       </c>
@@ -4070,13 +4061,13 @@
       </c>
     </row>
     <row r="40" spans="1:35">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
       <c r="G40" s="4">
         <v>0</v>
       </c>
@@ -4095,7 +4086,7 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="64"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
         <v>107</v>
       </c>
@@ -4117,7 +4108,7 @@
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="64"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="1" t="s">
         <v>109</v>
       </c>
@@ -4143,7 +4134,7 @@
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="64"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="25" t="s">
         <v>111</v>
       </c>
@@ -4159,16 +4150,16 @@
       <c r="I43" s="4">
         <v>1</v>
       </c>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
       <c r="T43" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="64"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="25" t="s">
         <v>113</v>
       </c>
@@ -4194,7 +4185,7 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="64" t="s">
         <v>115</v>
       </c>
       <c r="B45" s="26"/>
@@ -4213,14 +4204,14 @@
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="67"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="25" t="s">
         <v>116</v>
       </c>
@@ -4241,7 +4232,7 @@
       <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="67"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="25" t="s">
         <v>117</v>
       </c>
@@ -4262,7 +4253,7 @@
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="67"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="25" t="s">
         <v>118</v>
       </c>
@@ -4283,7 +4274,7 @@
       <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:34">
-      <c r="A49" s="67"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="25" t="s">
         <v>119</v>
       </c>
@@ -4327,7 +4318,7 @@
       <c r="AH49"/>
     </row>
     <row r="50" spans="1:34">
-      <c r="A50" s="68"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="25" t="s">
         <v>120</v>
       </c>
@@ -4348,7 +4339,7 @@
       <c r="K50" s="26"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="87"/>
+      <c r="N50" s="85"/>
       <c r="O50" s="34" t="s">
         <v>121</v>
       </c>
@@ -4375,7 +4366,7 @@
       <c r="AH50"/>
     </row>
     <row r="51" spans="1:34">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="67" t="s">
         <v>123</v>
       </c>
       <c r="B51" s="26"/>
@@ -4419,7 +4410,7 @@
       <c r="AH51"/>
     </row>
     <row r="52" spans="1:34">
-      <c r="A52" s="70"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="25" t="s">
         <v>124</v>
       </c>
@@ -4465,7 +4456,7 @@
       <c r="AH52"/>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="70"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="25" t="s">
         <v>126</v>
       </c>
@@ -4511,7 +4502,7 @@
       <c r="AH53"/>
     </row>
     <row r="54" spans="1:34">
-      <c r="A54" s="70"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="25" t="s">
         <v>128</v>
       </c>
@@ -4557,7 +4548,7 @@
       <c r="AH54"/>
     </row>
     <row r="55" spans="1:34">
-      <c r="A55" s="70"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="25" t="s">
         <v>130</v>
       </c>
@@ -4603,7 +4594,7 @@
       <c r="AH55"/>
     </row>
     <row r="56" spans="1:34">
-      <c r="A56" s="70"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="25" t="s">
         <v>132</v>
       </c>
@@ -4649,7 +4640,7 @@
       <c r="AH56"/>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="70"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="25" t="s">
         <v>134</v>
       </c>
@@ -4695,7 +4686,7 @@
       <c r="AH57"/>
     </row>
     <row r="58" spans="1:34">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="67" t="s">
         <v>136</v>
       </c>
       <c r="B58" s="26"/>
@@ -4739,13 +4730,13 @@
       <c r="AH58"/>
     </row>
     <row r="59" spans="1:34">
-      <c r="A59" s="70"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="81"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="79"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26">
         <v>0</v>
@@ -4787,13 +4778,13 @@
       <c r="AH59"/>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="70"/>
-      <c r="B60" s="73" t="s">
+      <c r="A60" s="68"/>
+      <c r="B60" s="71" t="s">
         <v>139</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="82"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26">
         <v>0</v>
@@ -4831,13 +4822,13 @@
       <c r="AH60"/>
     </row>
     <row r="61" spans="1:34">
-      <c r="A61" s="70"/>
-      <c r="B61" s="73" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="E61" s="82"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26">
         <v>0</v>
@@ -4875,13 +4866,13 @@
       <c r="AH61"/>
     </row>
     <row r="62" spans="1:34">
-      <c r="A62" s="70"/>
-      <c r="B62" s="74" t="s">
+      <c r="A62" s="68"/>
+      <c r="B62" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="83"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="81"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26">
         <v>0</v>
@@ -4919,13 +4910,13 @@
       <c r="AH62"/>
     </row>
     <row r="63" spans="1:34">
-      <c r="A63" s="70"/>
-      <c r="B63" s="76" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="76"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26">
         <v>0</v>
@@ -4963,13 +4954,13 @@
       <c r="AH63"/>
     </row>
     <row r="64" spans="1:34">
-      <c r="A64" s="70"/>
-      <c r="B64" s="78" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
       <c r="G64" s="26">
         <v>0</v>
       </c>
@@ -4991,13 +4982,13 @@
       <c r="AH64"/>
     </row>
     <row r="65" spans="1:34">
-      <c r="A65" s="70"/>
-      <c r="B65" s="78" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
       <c r="G65" s="4">
         <v>1</v>
       </c>
@@ -5019,13 +5010,13 @@
       <c r="AH65"/>
     </row>
     <row r="66" spans="1:34">
-      <c r="A66" s="70"/>
-      <c r="B66" s="78" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26">
         <v>0</v>
@@ -5056,13 +5047,13 @@
       <c r="AH66"/>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="95"/>
-      <c r="B67" s="78" t="s">
+      <c r="A67" s="93"/>
+      <c r="B67" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="26"/>
       <c r="G67" s="26">
         <v>1</v>
@@ -5086,13 +5077,13 @@
       </c>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="95"/>
-      <c r="B68" s="78" t="s">
+      <c r="A68" s="93"/>
+      <c r="B68" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
       <c r="F68" s="26"/>
       <c r="G68" s="4">
         <v>1</v>
@@ -5103,7 +5094,7 @@
       <c r="I68" s="4">
         <v>1</v>
       </c>
-      <c r="M68" s="73"/>
+      <c r="M68" s="71"/>
       <c r="N68" s="34" t="s">
         <v>121</v>
       </c>
@@ -5115,7 +5106,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="61" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="4">
@@ -5129,7 +5120,7 @@
       </c>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" s="64"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="4" t="s">
         <v>158</v>
       </c>
@@ -5147,7 +5138,7 @@
       </c>
     </row>
     <row r="71" spans="1:20">
-      <c r="A71" s="64"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="4" t="s">
         <v>160</v>
       </c>
@@ -5165,7 +5156,7 @@
       </c>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="64"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="4" t="s">
         <v>162</v>
       </c>
@@ -5183,13 +5174,13 @@
       </c>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" s="64"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
       <c r="G73" s="4">
         <v>1</v>
       </c>
@@ -5204,8 +5195,8 @@
       </c>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" s="64"/>
-      <c r="B74" s="97" t="s">
+      <c r="A74" s="62"/>
+      <c r="B74" s="95" t="s">
         <v>166</v>
       </c>
       <c r="C74" s="25"/>
@@ -5225,7 +5216,7 @@
       </c>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="64"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="25" t="s">
         <v>168</v>
       </c>
@@ -5246,7 +5237,7 @@
       </c>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="98"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="25" t="s">
         <v>170</v>
       </c>
@@ -5267,7 +5258,7 @@
       </c>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="97"/>
+      <c r="B77" s="95"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -5281,7 +5272,7 @@
       <c r="W78" s="22"/>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="61" t="s">
         <v>172</v>
       </c>
       <c r="C79" s="4">
@@ -5301,7 +5292,7 @@
       <c r="W79" s="22"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="99" t="s">
+      <c r="A80" s="97" t="s">
         <v>174</v>
       </c>
       <c r="C80" s="4">
@@ -5321,14 +5312,14 @@
       <c r="W80" s="22"/>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="62" t="s">
         <v>176</v>
       </c>
       <c r="B81" s="25"/>
-      <c r="C81" s="100">
-        <v>0</v>
-      </c>
-      <c r="D81" s="100">
+      <c r="C81" s="98">
+        <v>0</v>
+      </c>
+      <c r="D81" s="98">
         <v>0</v>
       </c>
       <c r="E81" s="4">
@@ -5339,7 +5330,7 @@
       </c>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="101" t="s">
+      <c r="A82" s="99" t="s">
         <v>178</v>
       </c>
       <c r="B82" s="22"/>
@@ -5357,7 +5348,7 @@
       </c>
     </row>
     <row r="83" spans="1:20">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="62" t="s">
         <v>180</v>
       </c>
       <c r="C83" s="4">
@@ -5374,7 +5365,7 @@
       </c>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="62" t="s">
         <v>182</v>
       </c>
       <c r="C84" s="4">
@@ -5391,7 +5382,7 @@
       </c>
     </row>
     <row r="85" spans="1:38">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="99" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="4">
@@ -5406,10 +5397,10 @@
       <c r="T85" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AL85" s="94"/>
+      <c r="AL85" s="92"/>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="98" t="s">
+      <c r="A86" s="100" t="s">
         <v>186</v>
       </c>
       <c r="C86" s="4">
@@ -5487,7 +5478,7 @@
       </c>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="101" t="s">
         <v>196</v>
       </c>
       <c r="C93" s="4">
@@ -5504,7 +5495,7 @@
       </c>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="95" t="s">
+      <c r="A94" s="93" t="s">
         <v>198</v>
       </c>
       <c r="C94" s="4">
@@ -5521,7 +5512,7 @@
       </c>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="95" t="s">
+      <c r="A95" s="93" t="s">
         <v>200</v>
       </c>
       <c r="C95" s="4">
@@ -5538,7 +5529,7 @@
       </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" s="103" t="s">
+      <c r="A96" s="102" t="s">
         <v>202</v>
       </c>
       <c r="C96" s="4">
@@ -5668,12 +5659,12 @@
       </c>
     </row>
     <row r="105" spans="2:20">
-      <c r="B105" s="65" t="s">
+      <c r="B105" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="22"/>
       <c r="G105" s="4">
         <v>0</v>
@@ -5703,12 +5694,12 @@
       </c>
     </row>
     <row r="106" spans="2:20">
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
       <c r="F106" s="22"/>
       <c r="G106" s="4">
         <v>0</v>
@@ -5739,12 +5730,12 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="22"/>
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
       <c r="G107" s="4">
         <v>0</v>
       </c>
@@ -5955,15 +5946,15 @@
       </c>
       <c r="C119" s="35"/>
       <c r="D119" s="37"/>
-      <c r="E119" s="48" t="s">
+      <c r="E119" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F119" s="49"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
-      <c r="K119" s="51"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="49"/>
       <c r="L119" s="32" t="s">
         <v>243</v>
       </c>
@@ -5990,116 +5981,116 @@
       <c r="AA119" s="32"/>
       <c r="AB119" s="32"/>
       <c r="AC119" s="32"/>
-      <c r="AD119" s="91">
-        <v>0</v>
-      </c>
-      <c r="AE119" s="91">
-        <v>0</v>
-      </c>
-      <c r="AF119" s="91">
-        <v>1</v>
-      </c>
-      <c r="AG119" s="91">
+      <c r="AD119" s="89">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="89">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG119" s="89">
         <v>1</v>
       </c>
       <c r="AI119" s="20"/>
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="22"/>
-      <c r="B120" s="104">
-        <v>0</v>
-      </c>
-      <c r="C120" s="105">
-        <v>1</v>
-      </c>
-      <c r="D120" s="106">
-        <v>0</v>
-      </c>
-      <c r="E120" s="107">
-        <v>0</v>
-      </c>
-      <c r="F120" s="107">
-        <v>0</v>
-      </c>
-      <c r="G120" s="107">
-        <v>0</v>
-      </c>
-      <c r="H120" s="107">
-        <v>1</v>
-      </c>
-      <c r="I120" s="107">
-        <v>1</v>
-      </c>
-      <c r="J120" s="107">
-        <v>0</v>
-      </c>
-      <c r="K120" s="108">
-        <v>1</v>
-      </c>
-      <c r="L120" s="109">
-        <v>0</v>
-      </c>
-      <c r="M120" s="111">
-        <v>0</v>
-      </c>
-      <c r="N120" s="111">
-        <v>0</v>
-      </c>
-      <c r="O120" s="111">
-        <v>0</v>
-      </c>
-      <c r="P120" s="111">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="111">
-        <v>1</v>
-      </c>
-      <c r="R120" s="111">
-        <v>0</v>
-      </c>
-      <c r="S120" s="111">
-        <v>1</v>
-      </c>
-      <c r="T120" s="111">
-        <v>0</v>
-      </c>
-      <c r="U120" s="111">
-        <v>0</v>
-      </c>
-      <c r="V120" s="104">
-        <v>0</v>
-      </c>
-      <c r="W120" s="105">
-        <v>0</v>
-      </c>
-      <c r="X120" s="106">
-        <v>1</v>
-      </c>
-      <c r="Y120" s="112">
-        <v>1</v>
-      </c>
-      <c r="Z120" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="111">
-        <v>1</v>
-      </c>
-      <c r="AB120" s="111">
-        <v>0</v>
-      </c>
-      <c r="AC120" s="111">
-        <v>0</v>
-      </c>
-      <c r="AD120" s="104">
-        <v>0</v>
-      </c>
-      <c r="AE120" s="105">
-        <v>0</v>
-      </c>
-      <c r="AF120" s="105">
-        <v>1</v>
-      </c>
-      <c r="AG120" s="106">
+      <c r="B120" s="103">
+        <v>0</v>
+      </c>
+      <c r="C120" s="104">
+        <v>1</v>
+      </c>
+      <c r="D120" s="105">
+        <v>0</v>
+      </c>
+      <c r="E120" s="43">
+        <v>0</v>
+      </c>
+      <c r="F120" s="43">
+        <v>0</v>
+      </c>
+      <c r="G120" s="43">
+        <v>0</v>
+      </c>
+      <c r="H120" s="43">
+        <v>1</v>
+      </c>
+      <c r="I120" s="43">
+        <v>1</v>
+      </c>
+      <c r="J120" s="43">
+        <v>0</v>
+      </c>
+      <c r="K120" s="52">
+        <v>1</v>
+      </c>
+      <c r="L120" s="106">
+        <v>0</v>
+      </c>
+      <c r="M120" s="108">
+        <v>0</v>
+      </c>
+      <c r="N120" s="108">
+        <v>0</v>
+      </c>
+      <c r="O120" s="108">
+        <v>0</v>
+      </c>
+      <c r="P120" s="108">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="108">
+        <v>1</v>
+      </c>
+      <c r="R120" s="108">
+        <v>0</v>
+      </c>
+      <c r="S120" s="108">
+        <v>1</v>
+      </c>
+      <c r="T120" s="108">
+        <v>0</v>
+      </c>
+      <c r="U120" s="108">
+        <v>0</v>
+      </c>
+      <c r="V120" s="103">
+        <v>0</v>
+      </c>
+      <c r="W120" s="104">
+        <v>0</v>
+      </c>
+      <c r="X120" s="105">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="108">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="108">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="108">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="108">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="103">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="104">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="104">
+        <v>1</v>
+      </c>
+      <c r="AG120" s="105">
         <v>1</v>
       </c>
       <c r="AI120" s="4" t="s">
@@ -6107,38 +6098,38 @@
       </c>
     </row>
     <row r="121" spans="2:35">
-      <c r="B121" s="104"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="110"/>
-      <c r="K121" s="110"/>
-      <c r="L121" s="110"/>
-      <c r="M121" s="110"/>
-      <c r="N121" s="110"/>
-      <c r="O121" s="110"/>
-      <c r="P121" s="110"/>
-      <c r="Q121" s="110"/>
-      <c r="R121" s="105"/>
-      <c r="S121" s="105"/>
-      <c r="T121" s="105"/>
-      <c r="U121" s="105"/>
-      <c r="V121" s="105"/>
-      <c r="W121" s="105"/>
-      <c r="X121" s="105"/>
-      <c r="Y121" s="105"/>
-      <c r="Z121" s="110"/>
-      <c r="AA121" s="110"/>
-      <c r="AB121" s="110"/>
-      <c r="AC121" s="110"/>
-      <c r="AD121" s="110"/>
-      <c r="AE121" s="110"/>
-      <c r="AF121" s="110"/>
-      <c r="AG121" s="113"/>
+      <c r="B121" s="103"/>
+      <c r="C121" s="104"/>
+      <c r="D121" s="104"/>
+      <c r="E121" s="104"/>
+      <c r="F121" s="104"/>
+      <c r="G121" s="104"/>
+      <c r="H121" s="104"/>
+      <c r="I121" s="104"/>
+      <c r="J121" s="107"/>
+      <c r="K121" s="107"/>
+      <c r="L121" s="107"/>
+      <c r="M121" s="107"/>
+      <c r="N121" s="107"/>
+      <c r="O121" s="107"/>
+      <c r="P121" s="107"/>
+      <c r="Q121" s="107"/>
+      <c r="R121" s="104"/>
+      <c r="S121" s="104"/>
+      <c r="T121" s="104"/>
+      <c r="U121" s="104"/>
+      <c r="V121" s="104"/>
+      <c r="W121" s="104"/>
+      <c r="X121" s="104"/>
+      <c r="Y121" s="104"/>
+      <c r="Z121" s="107"/>
+      <c r="AA121" s="107"/>
+      <c r="AB121" s="107"/>
+      <c r="AC121" s="107"/>
+      <c r="AD121" s="107"/>
+      <c r="AE121" s="107"/>
+      <c r="AF121" s="107"/>
+      <c r="AG121" s="110"/>
       <c r="AI121" s="20"/>
     </row>
     <row r="131" spans="2:5">
@@ -6553,7 +6544,7 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
-      <c r="AG5" s="52"/>
+      <c r="AG5" s="50"/>
       <c r="AI5" s="4" t="s">
         <v>251</v>
       </c>
@@ -6592,7 +6583,7 @@
       <c r="AC6" s="33"/>
       <c r="AD6" s="33"/>
       <c r="AE6" s="33"/>
-      <c r="AF6" s="50" t="s">
+      <c r="AF6" s="36" t="s">
         <v>253</v>
       </c>
       <c r="AG6" s="38" t="s">
@@ -6639,7 +6630,7 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="53"/>
+      <c r="AG7" s="51"/>
       <c r="AI7" s="4" t="s">
         <v>258</v>
       </c>
@@ -6672,14 +6663,14 @@
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="54"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="52"/>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="41" t="s">
@@ -6716,7 +6707,7 @@
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
-      <c r="AG9" s="55"/>
+      <c r="AG9" s="53"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="27" t="s">
@@ -6790,7 +6781,7 @@
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
       <c r="AF11" s="16"/>
-      <c r="AG11" s="52"/>
+      <c r="AG11" s="50"/>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="27" t="s">
@@ -6865,7 +6856,7 @@
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
-      <c r="AG13" s="52"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="27" t="s">
@@ -6898,17 +6889,17 @@
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="48" t="s">
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="48" t="s">
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="AG14" s="51"/>
+      <c r="AG14" s="49"/>
       <c r="AI14" s="4" t="s">
         <v>268</v>
       </c>
@@ -6946,16 +6937,16 @@
       <c r="W15" s="45"/>
       <c r="X15" s="45"/>
       <c r="Y15" s="45"/>
-      <c r="Z15" s="49" t="s">
+      <c r="Z15" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="51"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="49"/>
       <c r="AI15" s="4" t="s">
         <v>273</v>
       </c>
@@ -7045,7 +7036,7 @@
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
-      <c r="AG17" s="52"/>
+      <c r="AG17" s="50"/>
       <c r="AI17" s="4" t="s">
         <v>281</v>
       </c>
@@ -7122,7 +7113,7 @@
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
-      <c r="AG19" s="52"/>
+      <c r="AG19" s="50"/>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="27" t="s">
@@ -7196,7 +7187,7 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
-      <c r="AG21" s="52"/>
+      <c r="AG21" s="50"/>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="27" t="s">
@@ -7270,7 +7261,7 @@
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
-      <c r="AG23" s="52"/>
+      <c r="AG23" s="50"/>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="25"/>
